--- a/excels/materiales/16Metal(techos).xlsx
+++ b/excels/materiales/16Metal(techos).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\COTOCO\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="456" windowWidth="22716" windowHeight="13464"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="19320" windowHeight="13470"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -54,13 +49,28 @@
   </si>
   <si>
     <t>product_subdepartment_id</t>
+  </si>
+  <si>
+    <t>Lamina de hierro negro 3,17mm 1,22x2,44x1/8</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>TG Lamina Mold Tough 1/2 12mmx2,44 Gypsum Verde Resis Moho</t>
+  </si>
+  <si>
+    <t>TG Lamina securock Glass 1/2x4x8 p/exterior aprox 30 kls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,53 +555,56 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -607,7 +620,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -649,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,10 +694,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,7 +728,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -892,28 +903,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,10 +940,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -943,6 +954,108 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>116001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>28561.95</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="1">
+        <v>16002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16002</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4986.7299999999996</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>6001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16003</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11429.2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
